--- a/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
+++ b/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alias\Documents\Docs\Private\週一豐東羽球團\2024_Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBEE44-758C-4ABD-96E4-F143FFC4ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD834D7-B24C-4568-B375-A142B11DB21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20445" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
+    <workbookView xWindow="11508" yWindow="480" windowWidth="16092" windowHeight="13848" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
   </bookViews>
   <sheets>
     <sheet name="2023Q4收支明細" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023/12/11 更新餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024Q1 場地費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +66,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=SUM(B2:C7)</t>
+    <t>現金@Marco 季打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金@夜市喧 季打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金@鉉竣 季打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 鎮豪友 臨打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 靖懷 LINEPAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金@Frank 季打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 帆船 臨打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>團費結餘扣除$1430，鎮豪退出季繳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=SUM(B2:C15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/01/15 更新餘額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,21 +571,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCEF2F-70B8-4CD5-8F32-AA2B6924B187}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45271</v>
       </c>
@@ -575,10 +607,10 @@
         <v>5241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>45271</v>
       </c>
@@ -587,43 +619,144 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45278</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1430</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>45278</v>
+      </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="C5" s="10">
+        <v>1430</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45278</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1430</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>45278</v>
+      </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="C7" s="10">
+        <v>1430</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45278</v>
+      </c>
+      <c r="C8" s="7">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>45278</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1430</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>45299</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
+        <v>150</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>41648</v>
+      </c>
+      <c r="B12" s="6">
+        <v>-1430</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13">
-        <f>SUM(B2:C7)</f>
-        <v>-3319</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="15" t="s">
-        <v>5</v>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13">
+        <f>SUM(B2:C15)</f>
+        <v>2851</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
+++ b/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alias\Documents\Docs\Private\週一豐東羽球團\2024_Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD834D7-B24C-4568-B375-A142B11DB21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67E7A6-3B3A-474D-822A-6E4E298EDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11508" yWindow="480" windowWidth="16092" windowHeight="13848" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
+    <workbookView xWindow="13740" yWindow="1110" windowWidth="21870" windowHeight="13185" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
   </bookViews>
   <sheets>
     <sheet name="2023Q4收支明細" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現金 帆船 臨打費</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>團費結餘扣除$1430，鎮豪退出季繳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,7 +98,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024/01/15 更新餘額</t>
+    <t>2024/02/20更新餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 帆船 臨打費  LINEPAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 亦全 臨打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>購球總共四筒
+兩筒 VOLAR 10 $380*2=$760
+兩筒超力230 $390*2=$780</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,9 +288,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -421,7 +434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,21 +584,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCEF2F-70B8-4CD5-8F32-AA2B6924B187}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>45271</v>
       </c>
@@ -610,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45271</v>
       </c>
@@ -622,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>45278</v>
       </c>
@@ -633,7 +646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45278</v>
       </c>
@@ -645,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>45278</v>
       </c>
@@ -656,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45278</v>
       </c>
@@ -668,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45278</v>
       </c>
@@ -679,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45278</v>
       </c>
@@ -691,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>45299</v>
       </c>
@@ -702,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45299</v>
       </c>
@@ -711,52 +724,90 @@
         <v>150</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>41648</v>
+        <v>45300</v>
       </c>
       <c r="B12" s="6">
         <v>-1430</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45306</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10">
+        <v>150</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45341</v>
+      </c>
+      <c r="C14" s="7">
+        <v>150</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>45342</v>
+      </c>
+      <c r="B15" s="9">
+        <v>-1540</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13">
+        <f>SUM(B2:C19)</f>
+        <v>1611</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13">
-        <f>SUM(B2:C15)</f>
-        <v>2851</v>
-      </c>
-      <c r="D16" s="14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="15" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
+++ b/2024_Q1/2024-Q1_羽球季打費用明細.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alias\Documents\Docs\Private\週一豐東羽球團\2024_Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67E7A6-3B3A-474D-822A-6E4E298EDA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4D096-050B-43EA-86DC-B7DBCDE82108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13740" yWindow="1110" windowWidth="21870" windowHeight="13185" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="738" xr2:uid="{8981F119-1F50-4E2E-B5FC-EDE94F1AD592}"/>
   </bookViews>
   <sheets>
     <sheet name="2023Q4收支明細" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,27 +82,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>現金 靖懷 LINEPAY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>現金@Frank 季打費</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>團費結餘扣除$1430，鎮豪退出季繳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=SUM(B2:C15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/02/20更新餘額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>現金 帆船 臨打費  LINEPAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +97,34 @@
     <t>購球總共四筒
 兩筒 VOLAR 10 $380*2=$760
 兩筒超力230 $390*2=$780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LINEPAY 靖懷 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LINEPAY 帆船 臨打費  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 Unie 臨打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現金 Chia Ying、豪哥、豪哥友 臨打費</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/03/04更新餘額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LINEPAY 帆船 臨打費 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=SUM(B2:C23)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCCEF2F-70B8-4CD5-8F32-AA2B6924B187}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -701,7 +713,7 @@
         <v>150</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +724,7 @@
         <v>1430</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +748,7 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +760,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +771,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -771,43 +783,75 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45348</v>
+      </c>
+      <c r="C16" s="7">
+        <v>150</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>45355</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10">
+        <v>450</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13">
-        <f>SUM(B2:C19)</f>
-        <v>1611</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="15" t="s">
-        <v>15</v>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13">
+        <f>SUM(B2:C23)</f>
+        <v>2211</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
